--- a/uploads/Dueno/dueñominapanulcillo.xlsx
+++ b/uploads/Dueno/dueñominapanulcillo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/Dueno/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDCE8D45-3C58-46BB-B91E-7154946DB8E9}"/>
+  <xr:revisionPtr revIDLastSave="628" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB07804-21CA-48BD-A06F-5BBC269F165E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,12 +168,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -305,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -321,20 +315,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,6 +339,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,7 +611,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,8 +644,8 @@
       <c r="C2" s="8">
         <v>257</v>
       </c>
-      <c r="D2" s="9">
-        <v>23142</v>
+      <c r="D2" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -665,8 +658,8 @@
       <c r="C3" s="8">
         <v>333</v>
       </c>
-      <c r="D3" s="9">
-        <v>23726</v>
+      <c r="D3" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -676,8 +669,8 @@
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -689,8 +682,8 @@
       <c r="C5" s="8">
         <v>159</v>
       </c>
-      <c r="D5" s="9">
-        <v>22032</v>
+      <c r="D5" s="13">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -703,8 +696,8 @@
       <c r="C6" s="8">
         <v>124</v>
       </c>
-      <c r="D6" s="10">
-        <v>22170</v>
+      <c r="D6" s="13">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -717,8 +710,8 @@
       <c r="C7" s="8">
         <v>124</v>
       </c>
-      <c r="D7" s="10">
-        <v>22170</v>
+      <c r="D7" s="13">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -731,8 +724,8 @@
       <c r="C8" s="8">
         <v>159</v>
       </c>
-      <c r="D8" s="9">
-        <v>22032</v>
+      <c r="D8" s="13">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -745,8 +738,8 @@
       <c r="C9" s="8">
         <v>106</v>
       </c>
-      <c r="D9" s="9">
-        <v>22916</v>
+      <c r="D9" s="13">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -759,8 +752,8 @@
       <c r="C10" s="8">
         <v>171</v>
       </c>
-      <c r="D10" s="9">
-        <v>23001</v>
+      <c r="D10" s="13">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -773,8 +766,8 @@
       <c r="C11" s="8">
         <v>97</v>
       </c>
-      <c r="D11" s="9">
-        <v>24167</v>
+      <c r="D11" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -787,8 +780,8 @@
       <c r="C12" s="8">
         <v>87</v>
       </c>
-      <c r="D12" s="9">
-        <v>23152</v>
+      <c r="D12" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -801,8 +794,8 @@
       <c r="C13" s="8">
         <v>139</v>
       </c>
-      <c r="D13" s="9">
-        <v>23161</v>
+      <c r="D13" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -815,8 +808,8 @@
       <c r="C14" s="8">
         <v>92</v>
       </c>
-      <c r="D14" s="9">
-        <v>23687</v>
+      <c r="D14" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -829,8 +822,8 @@
       <c r="C15" s="8">
         <v>94</v>
       </c>
-      <c r="D15" s="9">
-        <v>22132</v>
+      <c r="D15" s="13">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -843,8 +836,8 @@
       <c r="C16" s="8">
         <v>72</v>
       </c>
-      <c r="D16" s="9">
-        <v>23449</v>
+      <c r="D16" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -857,8 +850,8 @@
       <c r="C17" s="8">
         <v>106</v>
       </c>
-      <c r="D17" s="9">
-        <v>22953</v>
+      <c r="D17" s="13">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -871,8 +864,8 @@
       <c r="C18" s="8">
         <v>92</v>
       </c>
-      <c r="D18" s="9">
-        <v>23951</v>
+      <c r="D18" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -885,8 +878,8 @@
       <c r="C19" s="8">
         <v>102</v>
       </c>
-      <c r="D19" s="9">
-        <v>22402</v>
+      <c r="D19" s="13">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -899,8 +892,8 @@
       <c r="C20" s="8">
         <v>67</v>
       </c>
-      <c r="D20" s="9">
-        <v>23694</v>
+      <c r="D20" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -913,8 +906,8 @@
       <c r="C21" s="8">
         <v>124</v>
       </c>
-      <c r="D21" s="9">
-        <v>23359</v>
+      <c r="D21" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -927,8 +920,8 @@
       <c r="C22" s="8">
         <v>94</v>
       </c>
-      <c r="D22" s="9">
-        <v>23408</v>
+      <c r="D22" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -941,8 +934,8 @@
       <c r="C23" s="8">
         <v>84</v>
       </c>
-      <c r="D23" s="9">
-        <v>23891</v>
+      <c r="D23" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -955,8 +948,8 @@
       <c r="C24" s="8">
         <v>144</v>
       </c>
-      <c r="D24" s="9">
-        <v>23947</v>
+      <c r="D24" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -969,50 +962,50 @@
       <c r="C25" s="8">
         <v>254</v>
       </c>
-      <c r="D25" s="9">
-        <v>23119</v>
+      <c r="D25" s="13">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>44068</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="8">
         <v>239</v>
       </c>
-      <c r="D26" s="9">
-        <v>23951</v>
+      <c r="D26" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>44069</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="8">
         <v>104</v>
       </c>
-      <c r="D27" s="9">
-        <v>24093</v>
+      <c r="D27" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
+      <c r="A28" s="10">
         <v>44070</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="8">
         <v>121</v>
       </c>
-      <c r="D28" s="9">
-        <v>24237</v>
+      <c r="D28" s="13">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
